--- a/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
+++ b/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,12 +107,34 @@
   <si>
     <t>China/LOCATION first/O formally/O proposed/O this/O at/O the/O ``/O Heart/O of/O Asia/LOCATION ''/O ministerial/O conference/O in/O Beijing/LOCATION last/O year/O ,/O and/O had/O been/O sounding/O various/O parties/O out/O informally/O for/O some/O time/O before/O that/O ./O</t>
   </si>
+  <si>
+    <t>20140926-260.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;LOCATION&gt;Australia-Cambodia/O&lt;/LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> refugee/O resettlement/O deal/O slammed/O by/O rights/O groups/O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia-Cambodia 这种都是地域构成的词是否标记为【LOC】？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0070A1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -540,6 +569,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
+++ b/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
+++ b/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,67 @@
   </si>
   <si>
     <t>Australia-Cambodia 这种都是地域构成的词是否标记为【LOC】？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20080410-211.txt</t>
+  </si>
+  <si>
+    <t>前文讲到Boao Forum【ORG】 ,后面当前句子中提到Forum 是否标记为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">President/O Musharraf/PERSON will/O also/O be/O a/O keynote/O speaker/O at/O the/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;ORGANIZATION&gt;Forum/O&lt;/ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and/O is/O due/O to/O meet/O several/O leaders/O ,/O including/O the/O president/O of/O Sri/LOCATION Lanka/LOCATION and/O prime/O ministers/O of/O Australia/LOCATION and/O Kazakhstan/LOCATION during/O the/O conference/O ./O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The/O International/ORGANIZATION Olympic/ORGANIZATION Committee/ORGANIZATION made/O no/O deal/O with/O China/LOCATION on/O limited/O Internet/O access/O for/O the/O media/O at/O the/O Beijing/LOCATION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF606060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OTHER&gt;Olympics/LOCATION&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O IOC/ORGANIZATION president/O Jacques/PERSON Rogge/PERSON said/O on/O Saturday/O in/O response/O to/O recent/O speculation/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>20080802-215.txt</t>
+  </si>
+  <si>
+    <t>Beijing Olympic 整体不是实体，但是Beijing是【LOC】，是否标记，根据NER标注规则中【Qualcomm Stadium】是不标注的，推测该实体不标注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -580,6 +641,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
+++ b/NERPrj/self_tagged/dwNews/dwNews_问题汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>20160908-113.txt</t>
-  </si>
-  <si>
-    <t>The/O Cultural/O Revolution/O began/O in/O 1966/O when/O Mao/PERSON declared/O a/O class/O war/O The/O takeover/O of/O power/O by/O the/O CPC/ORGANIZATION under/O Mao/PERSON 's/O leadership/O was/O followed/O by/O two/O catastrophes/O resulting/O in/O the/O loss/O of/O millions/O of/O lives/O ./O</t>
   </si>
   <si>
     <t>这里的【文化大革命】参考CoNLL03的标注，决定不标记为【ORG】</t>
@@ -64,7 +61,113 @@
     <t>20161114-228.txt</t>
   </si>
   <si>
-    <t>中巴经济走廊峰会 暂时确定为非【ORG】</t>
+    <t>20150902-126.txt</t>
+  </si>
+  <si>
+    <t>20150212-168.txt</t>
+  </si>
+  <si>
+    <t>20140926-260.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;LOCATION&gt;Australia-Cambodia/O&lt;/LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> refugee/O resettlement/O deal/O slammed/O by/O rights/O groups/O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia-Cambodia 这种都是地域构成的词是否标记为【LOC】？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20080410-211.txt</t>
+  </si>
+  <si>
+    <t>前文讲到Boao Forum【ORG】 ,后面当前句子中提到Forum 是否标记为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20080802-215.txt</t>
+  </si>
+  <si>
+    <t>【Heart of Asia】 - Istanbul Process 是一个部长会议，用于进行讨论阿富汗和其邻国之间的一系列问题，不整体标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China/LOCATION first/O formally/O proposed/O this/O at/O the/O ``/O Heart/O of/O Asia/LOCATION ''/O ministerial/O conference/O in/O Beijing/LOCATION last/O year/O ,/O and/O had/O been/O sounding/O various/O parties/O out/O informally/O for/O some/O time/O before/O that/O ./O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人认为 是实体【ORG】，因为该进程由若干国家参与，形成组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据NER标注pdf P44 【-】的用法，两者是分开标注的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>President/O Musharraf/PERSON will/O also/O be/O a/O keynote/O speaker/O at/O the/O &lt;ORGANIZATION&gt;Forum/O&lt;/ORGANIZATION&gt; and/O is/O due/O to/O meet/O several/O leaders/O ,/O including/O the/O president/O of/O Sri/LOCATION Lanka/LOCATION and/O prime/O ministers/O of/O Australia/LOCATION and/O Kazakhstan/LOCATION during/O the/O conference/O ./O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据NER 标注 手册 P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The/O International/ORGANIZATION Olympic/ORGANIZATION Committee/ORGANIZATION made/O no/O deal/O with/O China/LOCATION on/O limited/O Internet/O access/O for/O the/O media/O at/O the/O Beijing/LOCATION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF606060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OTHER&gt;Olympics/LOCATION&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,/O IOC/ORGANIZATION president/O Jacques/PERSON Rogge/PERSON said/O on/O Saturday/O in/O response/O to/O recent/O speculation/O ./O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Christie/I-PER is/O retiring/O from/O international/O competition/O at/O the/O end/O of/O the/O season/O ,/O but/O Berlin/I-LOC promoter/O Rudi/I-PER Thiel/I-PER has/O persuaded/O him/O to/O join/O what/O is/O intended/O to/O be/O a/O special/O tribute/O to/O Jesse/I-PER Owens/I-PER ,/O who/O won/O four/O gold/O medals/O 60/O years/O ago/O at/O the/O Berlin/I-LOC Olympics/I-MISC ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoNLL03 中 【Berlin/I-LOC Olympics/I-MISC】 标记如此，只标记【地名】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The/O Cultural/O Revolution/O began/O in/O 1966/O when/O Mao/PERSON declared/O a/O class/O war/O The/O takeover/O of/O power/O by/O the/O CPC/ORGANIZATION under/O Mao/PERSON 's/O leadership/O was/O followed/O by/O two/O catastrophes/O resulting/O in/O the/O loss/O of/O millions/O of/O lives/O ./O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中巴经济走廊 是【丝路】【LOC】上的一支，确定为【LOC】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,105 +192,14 @@
       </rPr>
       <t xml:space="preserve"> that/O the/O major/O cause/O behind/O Uighur/O migration/O is/O disaffection/O with/O Chinese/O rule/O ./O</t>
     </r>
-  </si>
-  <si>
-    <t>the Pacific 是否标为【LOC】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150902-126.txt</t>
-  </si>
-  <si>
-    <t>20150212-168.txt</t>
-  </si>
-  <si>
-    <t>【Heart of Asia】 - Istanbul Process 是一个部长会议，用于进行讨论阿富汗和其邻国之间的一系列问题，不整体标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China/LOCATION first/O formally/O proposed/O this/O at/O the/O ``/O Heart/O of/O Asia/LOCATION ''/O ministerial/O conference/O in/O Beijing/LOCATION last/O year/O ,/O and/O had/O been/O sounding/O various/O parties/O out/O informally/O for/O some/O time/O before/O that/O ./O</t>
-  </si>
-  <si>
-    <t>20140926-260.txt</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;LOCATION&gt;Australia-Cambodia/O&lt;/LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refugee/O resettlement/O deal/O slammed/O by/O rights/O groups/O</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia-Cambodia 这种都是地域构成的词是否标记为【LOC】？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20080410-211.txt</t>
-  </si>
-  <si>
-    <t>前文讲到Boao Forum【ORG】 ,后面当前句子中提到Forum 是否标记为【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">President/O Musharraf/PERSON will/O also/O be/O a/O keynote/O speaker/O at/O the/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF00319F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;ORGANIZATION&gt;Forum/O&lt;/ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and/O is/O due/O to/O meet/O several/O leaders/O ,/O including/O the/O president/O of/O Sri/LOCATION Lanka/LOCATION and/O prime/O ministers/O of/O Australia/LOCATION and/O Kazakhstan/LOCATION during/O the/O conference/O ./O</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The/O International/ORGANIZATION Olympic/ORGANIZATION Committee/ORGANIZATION made/O no/O deal/O with/O China/LOCATION on/O limited/O Internet/O access/O for/O the/O media/O at/O the/O Beijing/LOCATION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF606060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;OTHER&gt;Olympics/LOCATION&lt;/OTHER&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,/O IOC/ORGANIZATION president/O Jacques/PERSON Rogge/PERSON said/O on/O Saturday/O in/O response/O to/O recent/O speculation/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>20080802-215.txt</t>
-  </si>
-  <si>
-    <t>Beijing Olympic 整体不是实体，但是Beijing是【LOC】，是否标记，根据NER标注规则中【Qualcomm Stadium】是不标注的，推测该实体不标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Pacific 确定标为【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing Olympic 整体不是实体，但是Beijing是【LOC】，是否标记，根据NER标注规则中【Qualcomm Stadium】是不标注的，推测该实体不标注（×）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +246,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,10 +280,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,19 +590,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,82 +612,103 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
